--- a/RR/excel/NominationFlow/NominationFlow.xlsx
+++ b/RR/excel/NominationFlow/NominationFlow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choug\git\RR_Web\RR\excel\NominationFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E6EEED-A651-4692-982D-0419E1A18FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17380C0C-329E-4A16-81F0-5F3EF74CBA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C943" sheetId="1" r:id="rId1"/>
@@ -115,15 +115,9 @@
     <t>manager16@rewards-demo.com</t>
   </si>
   <si>
-    <t>ZZXDI4VW</t>
-  </si>
-  <si>
     <t>manager17@rewards-demo.com</t>
   </si>
   <si>
-    <t>T4M2LV5W</t>
-  </si>
-  <si>
     <t>Rewards-Demo</t>
   </si>
   <si>
@@ -188,6 +182,12 @@
   </si>
   <si>
     <t>Celio</t>
+  </si>
+  <si>
+    <t>014kx4gnxx</t>
+  </si>
+  <si>
+    <t>gijugiuj71</t>
   </si>
 </sst>
 </file>
@@ -794,7 +794,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I1" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -888,7 +888,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,7 +905,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I1" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -951,7 +951,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="3"/>
@@ -965,10 +965,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1007,7 +1007,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I1" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1050,10 +1050,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="3"/>
@@ -1067,10 +1067,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1109,7 +1109,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I1" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1152,10 +1152,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="3"/>
@@ -1169,10 +1169,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1193,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3778384-E863-4BC3-BBEA-44B816D72A72}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,7 +1211,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I1" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1254,19 +1254,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1277,19 +1277,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1313,7 +1313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB290E24-C481-4341-9117-85CCDD1630F6}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -1331,7 +1331,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I1" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1359,13 +1359,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1373,13 +1373,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">

--- a/RR/excel/NominationFlow/NominationFlow.xlsx
+++ b/RR/excel/NominationFlow/NominationFlow.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choug\git\RR_Web\RR\excel\NominationFlow\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17380C0C-329E-4A16-81F0-5F3EF74CBA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="C943" sheetId="1" r:id="rId1"/>
@@ -20,69 +14,81 @@
     <sheet name="C1084" sheetId="5" r:id="rId5"/>
     <sheet name="C924" sheetId="6" r:id="rId6"/>
     <sheet name="C1270" sheetId="7" r:id="rId7"/>
-    <sheet name="C999" sheetId="8" r:id="rId8"/>
+    <sheet name="C1328" sheetId="9" r:id="rId8"/>
+    <sheet name="C999" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="59">
+  <si>
+    <t>Tata Steel</t>
+  </si>
   <si>
     <t>Count of Screen</t>
   </si>
   <si>
+    <t>Nominator</t>
+  </si>
+  <si>
+    <t>Approver 1</t>
+  </si>
+  <si>
+    <t>Approver 2</t>
+  </si>
+  <si>
+    <t>Approver 3</t>
+  </si>
+  <si>
+    <t>Approver 4</t>
+  </si>
+  <si>
+    <t>Approver 5</t>
+  </si>
+  <si>
+    <t>Approver 6</t>
+  </si>
+  <si>
+    <t>Approver 7</t>
+  </si>
+  <si>
     <t>UserName</t>
   </si>
   <si>
+    <t>nominatorsteel@ac.in</t>
+  </si>
+  <si>
+    <t>buheadsteel@ac.in</t>
+  </si>
+  <si>
+    <t>approver3steel@ac.in</t>
+  </si>
+  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Nominator</t>
-  </si>
-  <si>
-    <t>Approver 1</t>
-  </si>
-  <si>
-    <t>Approver 2</t>
-  </si>
-  <si>
-    <t>Approver 3</t>
-  </si>
-  <si>
-    <t>Approver 4</t>
-  </si>
-  <si>
-    <t>Approver 5</t>
-  </si>
-  <si>
-    <t>Approver 6</t>
-  </si>
-  <si>
-    <t>Approver 7</t>
-  </si>
-  <si>
-    <t>nominatorsteel@ac.in</t>
-  </si>
-  <si>
     <t>advantage!943</t>
   </si>
   <si>
-    <t>buheadsteel@ac.in</t>
-  </si>
-  <si>
-    <t>approver3steel@ac.in</t>
-  </si>
-  <si>
     <t>7H1G7T4W</t>
   </si>
   <si>
-    <t>Tata Steel</t>
+    <t>Tata Steel - Shabash</t>
   </si>
   <si>
     <t>nominatorshabash@yopmail.com</t>
@@ -91,25 +97,28 @@
     <t>approver3.shabash@yopmail.com</t>
   </si>
   <si>
+    <t>hrbpshabash@yopmail.com</t>
+  </si>
+  <si>
     <t>advantage</t>
   </si>
   <si>
-    <t>hrbpshabash@yopmail.com</t>
-  </si>
-  <si>
-    <t>Tata Steel - Shabash</t>
+    <t>Sentiss-Pharma</t>
+  </si>
+  <si>
+    <t>manager1.sentiss@yopmail.com</t>
   </si>
   <si>
     <t>approver1.sentiss@yopmail.com</t>
   </si>
   <si>
+    <t>approver2.sentiss@yopmail.com</t>
+  </si>
+  <si>
     <t>Advantage!1214</t>
   </si>
   <si>
-    <t>approver2.sentiss@yopmail.com</t>
-  </si>
-  <si>
-    <t>manager1.sentiss@yopmail.com</t>
+    <t>Rewards-Demo</t>
   </si>
   <si>
     <t>manager16@rewards-demo.com</t>
@@ -118,22 +127,25 @@
     <t>manager17@rewards-demo.com</t>
   </si>
   <si>
-    <t>Rewards-Demo</t>
-  </si>
-  <si>
-    <t>Sentiss-Pharma</t>
+    <t>014kx4gnxx</t>
+  </si>
+  <si>
+    <t>gijugiuj71</t>
+  </si>
+  <si>
+    <t>TechnipFMC</t>
   </si>
   <si>
     <t>manager1.tf@yopmail.com</t>
   </si>
   <si>
+    <t>admin.ac@technipfmc.com</t>
+  </si>
+  <si>
     <t>Advantage!1084</t>
   </si>
   <si>
-    <t>admin.ac@technipfmc.com</t>
-  </si>
-  <si>
-    <t>TechnipFMC</t>
+    <t>TATA Elaxi</t>
   </si>
   <si>
     <t>admin.ac@tataelxsi.com</t>
@@ -142,64 +154,82 @@
     <t>advantage!924</t>
   </si>
   <si>
-    <t>TATA Elaxi</t>
+    <t>Satven</t>
   </si>
   <si>
     <t>projectmanager.satven@outlook.com</t>
   </si>
   <si>
+    <t>hod.satven@outlook.com</t>
+  </si>
+  <si>
+    <t>hodhr.satven@outlook.com</t>
+  </si>
+  <si>
+    <t>sureshtest.satven@outlook.com</t>
+  </si>
+  <si>
+    <t>ceo.satven@outlook.com</t>
+  </si>
+  <si>
     <t>Advantage!1270</t>
   </si>
   <si>
-    <t>hod.satven@outlook.com</t>
-  </si>
-  <si>
-    <t>hodhr.satven@outlook.com</t>
-  </si>
-  <si>
-    <t>sureshtest.satven@outlook.com</t>
-  </si>
-  <si>
-    <t>ceo.satven@outlook.com</t>
-  </si>
-  <si>
-    <t>Satven</t>
+    <t>SATVEN</t>
+  </si>
+  <si>
+    <t>manager1.himadri@yopmail.com</t>
+  </si>
+  <si>
+    <t>approver1.himadri@yopmail.com</t>
+  </si>
+  <si>
+    <t>approver2.himadri@yopmail.com</t>
+  </si>
+  <si>
+    <t>hr.himadri@yopmail.com</t>
+  </si>
+  <si>
+    <t>admin.ac@himadri.com</t>
+  </si>
+  <si>
+    <t>Advantage!1328</t>
+  </si>
+  <si>
+    <t>Celio</t>
+  </si>
+  <si>
+    <t>Employee</t>
   </si>
   <si>
     <t>testakshay@celio.com</t>
   </si>
   <si>
+    <t>testbinny@yopmail.com</t>
+  </si>
+  <si>
+    <t>testsatyan@yopmail.com</t>
+  </si>
+  <si>
     <t>Advantage!999</t>
-  </si>
-  <si>
-    <t>testbinny@yopmail.com</t>
-  </si>
-  <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>testsatyan@yopmail.com</t>
-  </si>
-  <si>
-    <t>Celio</t>
-  </si>
-  <si>
-    <t>014kx4gnxx</t>
-  </si>
-  <si>
-    <t>gijugiuj71</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,13 +237,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,11 +245,155 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,12 +402,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -249,50 +597,335 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -341,7 +974,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -376,7 +1009,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -550,842 +1183,974 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="17.4259259259259" customWidth="1"/>
+    <col min="3" max="3" width="19.5740740740741" customWidth="1"/>
+    <col min="4" max="5" width="21.712962962963" customWidth="1"/>
+    <col min="6" max="6" width="19.5740740740741" customWidth="1"/>
+    <col min="7" max="7" width="17.5740740740741" customWidth="1"/>
+    <col min="8" max="8" width="20.8518518518519" customWidth="1"/>
+    <col min="9" max="9" width="22.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="9:9">
       <c r="I1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="1" t="s">
+    </row>
+    <row r="7" ht="28.8" spans="1:9">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDD9004-2E8D-4C58-B46A-AB9A7CDD7877}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="17.4259259259259" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="4" max="5" width="21.712962962963" customWidth="1"/>
+    <col min="6" max="6" width="19.5740740740741" customWidth="1"/>
+    <col min="7" max="7" width="17.5740740740741" customWidth="1"/>
+    <col min="8" max="8" width="20.8518518518519" customWidth="1"/>
+    <col min="9" max="9" width="22.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="9:9">
       <c r="I1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="1" t="s">
+    </row>
+    <row r="7" ht="28.8" spans="1:9">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306D289A-84F8-433A-AD34-646FFBCE21EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="17.4259259259259" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="4" max="5" width="21.712962962963" customWidth="1"/>
+    <col min="6" max="6" width="19.5740740740741" customWidth="1"/>
+    <col min="7" max="7" width="17.5740740740741" customWidth="1"/>
+    <col min="8" max="8" width="20.8518518518519" customWidth="1"/>
+    <col min="9" max="9" width="22.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="9:9">
       <c r="I1" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="1" t="s">
+    </row>
+    <row r="7" ht="28.8" spans="1:9">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{02E055CD-43C2-47AB-88F4-2134766FAF29}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{8FE8B240-6E20-4A0D-A652-84BDC07B15E4}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{0CEBAC03-F9AA-4C71-9586-776D92446081}"/>
+    <hyperlink ref="C7" r:id="rId1" display="approver1.sentiss@yopmail.com"/>
+    <hyperlink ref="D7" r:id="rId2" display="approver2.sentiss@yopmail.com"/>
+    <hyperlink ref="B7" r:id="rId3" display="manager1.sentiss@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21698C99-89DE-4AE9-8979-2F6FEC744EAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="17.4259259259259" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="4" max="5" width="21.712962962963" customWidth="1"/>
+    <col min="6" max="6" width="19.5740740740741" customWidth="1"/>
+    <col min="7" max="7" width="17.5740740740741" customWidth="1"/>
+    <col min="8" max="8" width="20.8518518518519" customWidth="1"/>
+    <col min="9" max="9" width="22.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="9:9">
       <c r="I1" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="1" t="s">
+    </row>
+    <row r="7" ht="28.8" spans="1:9">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64063379-8726-4B2E-B341-5E36F74F01E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="17.4259259259259" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="4" max="5" width="21.712962962963" customWidth="1"/>
+    <col min="6" max="6" width="19.5740740740741" customWidth="1"/>
+    <col min="7" max="7" width="17.5740740740741" customWidth="1"/>
+    <col min="8" max="8" width="20.8518518518519" customWidth="1"/>
+    <col min="9" max="9" width="22.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="9:9">
       <c r="I1" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="1" t="s">
+    </row>
+    <row r="7" ht="28.8" spans="1:9">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CFF34-56E7-419C-917E-20B514560D2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="17.4259259259259" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="4" max="5" width="21.712962962963" customWidth="1"/>
+    <col min="6" max="6" width="19.5740740740741" customWidth="1"/>
+    <col min="7" max="7" width="17.5740740740741" customWidth="1"/>
+    <col min="8" max="8" width="20.8518518518519" customWidth="1"/>
+    <col min="9" max="9" width="22.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="9:9">
       <c r="I1" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="1" t="s">
+    </row>
+    <row r="7" ht="28.8" spans="1:9">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3778384-E863-4BC3-BBEA-44B816D72A72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="17.4259259259259" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="4" max="5" width="21.712962962963" customWidth="1"/>
+    <col min="6" max="6" width="19.5740740740741" customWidth="1"/>
+    <col min="7" max="7" width="17.5740740740741" customWidth="1"/>
+    <col min="8" max="8" width="20.8518518518519" customWidth="1"/>
+    <col min="9" max="9" width="22.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="9:9">
       <c r="I1" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="1" t="s">
+    </row>
+    <row r="7" ht="28.8" spans="1:9">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{2E0436D2-EA63-4872-8D5C-01748E098BD2}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{5F67B52E-7E0D-4AF9-9547-5B3E7F9A4E4D}"/>
-    <hyperlink ref="E7" r:id="rId3" xr:uid="{72511A1B-053D-42F0-BFA6-7B321256CC61}"/>
-    <hyperlink ref="F7" r:id="rId4" xr:uid="{06954C59-4D04-4816-8B65-3D31A7B18220}"/>
+    <hyperlink ref="C7" r:id="rId1" display="hod.satven@outlook.com"/>
+    <hyperlink ref="D7" r:id="rId2" display="hodhr.satven@outlook.com"/>
+    <hyperlink ref="E7" r:id="rId3" display="sureshtest.satven@outlook.com"/>
+    <hyperlink ref="F7" r:id="rId4" display="ceo.satven@outlook.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB290E24-C481-4341-9117-85CCDD1630F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="17.4259259259259" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="5" width="21.712962962963" customWidth="1"/>
+    <col min="6" max="6" width="19.5740740740741" customWidth="1"/>
+    <col min="7" max="7" width="17.5740740740741" customWidth="1"/>
+    <col min="8" max="8" width="20.8518518518519" customWidth="1"/>
+    <col min="9" max="9" width="22.287037037037" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="9:9">
+      <c r="I1" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" display="manager1.himadri@yopmail.com"/>
+    <hyperlink ref="C7" r:id="rId2" display="approver1.himadri@yopmail.com" tooltip="mailto:approver1.himadri@yopmail.com"/>
+    <hyperlink ref="D7" r:id="rId3" display="approver2.himadri@yopmail.com" tooltip="mailto:approver2.himadri@yopmail.com"/>
+    <hyperlink ref="E7" r:id="rId4" display="hr.himadri@yopmail.com" tooltip="mailto:hr.himadri@yopmail.com"/>
+    <hyperlink ref="F7" r:id="rId5" display="admin.ac@himadri.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="17.4259259259259" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="4" max="5" width="21.712962962963" customWidth="1"/>
+    <col min="6" max="6" width="19.5740740740741" customWidth="1"/>
+    <col min="7" max="7" width="17.5740740740741" customWidth="1"/>
+    <col min="8" max="8" width="20.8518518518519" customWidth="1"/>
+    <col min="9" max="9" width="22.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="9:9">
       <c r="I1" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/RR/excel/NominationFlow/NominationFlow.xlsx
+++ b/RR/excel/NominationFlow/NominationFlow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="7"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="C943" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,8 @@
     <sheet name="C924" sheetId="6" r:id="rId6"/>
     <sheet name="C1270" sheetId="7" r:id="rId7"/>
     <sheet name="C1328" sheetId="9" r:id="rId8"/>
-    <sheet name="C999" sheetId="8" r:id="rId9"/>
+    <sheet name="C1291" sheetId="10" r:id="rId9"/>
+    <sheet name="C999" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="68">
   <si>
     <t>Tata Steel</t>
   </si>
@@ -194,6 +195,33 @@
   </si>
   <si>
     <t>Advantage!1328</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>american-airlines.nominator@yopmail.com</t>
+  </si>
+  <si>
+    <t>american-airlines.requestor@yopmail.com</t>
+  </si>
+  <si>
+    <t>american-airlines.approver@yopmail.com</t>
+  </si>
+  <si>
+    <t>american-airlines.exception@yopmail.com</t>
+  </si>
+  <si>
+    <t>superuser.igtph@yopmail.com</t>
+  </si>
+  <si>
+    <t>american-airlines.user1@yopmail.com</t>
+  </si>
+  <si>
+    <t>Advantage!1291</t>
   </si>
   <si>
     <t>Celio</t>
@@ -1294,6 +1322,89 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="17.4259259259259" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="5" width="21.712962962963" customWidth="1"/>
+    <col min="6" max="6" width="19.5740740740741" customWidth="1"/>
+    <col min="7" max="7" width="17.5740740740741" customWidth="1"/>
+    <col min="8" max="8" width="20.8518518518519" customWidth="1"/>
+    <col min="9" max="9" width="22.287037037037" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="9:9">
+      <c r="I1" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -1954,8 +2065,8 @@
   <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2077,14 +2188,14 @@
   <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.1388888888889" customWidth="1"/>
-    <col min="2" max="2" width="17.4259259259259" customWidth="1"/>
+    <col min="2" max="2" width="23.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="5" width="21.712962962963" customWidth="1"/>
     <col min="6" max="6" width="19.5740740740741" customWidth="1"/>
@@ -2095,7 +2206,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2103,10 +2214,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -2115,10 +2226,25 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" ht="28.8" spans="1:4">
+      <c r="H6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="43.2" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2131,25 +2257,51 @@
       <c r="D7" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1" display="superuser.igtph@yopmail.com" tooltip="mailto:superuser.igtph@yopmail.com"/>
+    <hyperlink ref="G7" r:id="rId2" display="american-airlines.user1@yopmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/RR/excel/NominationFlow/NominationFlow.xlsx
+++ b/RR/excel/NominationFlow/NominationFlow.xlsx
@@ -2189,7 +2189,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2301,6 +2301,7 @@
   <hyperlinks>
     <hyperlink ref="F7" r:id="rId1" display="superuser.igtph@yopmail.com" tooltip="mailto:superuser.igtph@yopmail.com"/>
     <hyperlink ref="G7" r:id="rId2" display="american-airlines.user1@yopmail.com"/>
+    <hyperlink ref="B7" r:id="rId3" display="american-airlines.nominator@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
